--- a/data/mistakes/annotated/stanza_lemma_mistakes_annotated.xlsx
+++ b/data/mistakes/annotated/stanza_lemma_mistakes_annotated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27f43607ae8ba673/Dokumenty/GitHub/WSMF-presentation/data/mistakes/annotated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="11_5FE5ACE1415CBA0E62355476585DCE3A874581A9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20FA9724-2F6B-41AC-9502-03916FCC4B7B}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="11_5FE5ACE1415CBA0E62355476585DCE3A874581A9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DD12CF3-A056-4AFE-8301-DD875EDA403E}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5015,7 +5015,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -5033,6 +5033,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5322,8 +5326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F538"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="F542" sqref="F542"/>
+    <sheetView tabSelected="1" topLeftCell="A420" workbookViewId="0">
+      <selection activeCell="F450" sqref="F450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6289,7 +6293,7 @@
         <v>153</v>
       </c>
       <c r="F48" t="s">
-        <v>1641</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -7849,7 +7853,7 @@
         <v>388</v>
       </c>
       <c r="F126" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -8629,7 +8633,7 @@
         <v>523</v>
       </c>
       <c r="F165" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -9489,7 +9493,7 @@
         <v>638</v>
       </c>
       <c r="F208" t="s">
-        <v>1635</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -10349,7 +10353,7 @@
         <v>736</v>
       </c>
       <c r="F251" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -11929,7 +11933,7 @@
         <v>1016</v>
       </c>
       <c r="F330" t="s">
-        <v>1641</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -14249,7 +14253,7 @@
         <v>1346</v>
       </c>
       <c r="F446" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
@@ -14289,7 +14293,7 @@
         <v>1352</v>
       </c>
       <c r="F448" t="s">
-        <v>1641</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
@@ -15729,7 +15733,7 @@
         <v>1572</v>
       </c>
       <c r="F520" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
